--- a/output_data/access_number_final.xlsx
+++ b/output_data/access_number_final.xlsx
@@ -15,6 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -52,11 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,397 +355,346 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="20.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>VARIABLE</t>
+          <t>PTID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>NA_percentage</t>
+          <t>access_number_1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Format</t>
+          <t>access_number_2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Values</t>
+          <t>access_number_3</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Definition</t>
+          <t>date_1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>date_2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>date_3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PTID</t>
-        </is>
-      </c>
-      <c r="B2">
-        <v>0</v>
+          <t>PT-946</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>21_1010_4365</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Character</t>
+          <t>21_3010_6790</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PT-XXX</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Unique, annonymized patient identifier</t>
-        </is>
+          <t>21_1511_3256</t>
+        </is>
+      </c>
+      <c r="E2" s="2">
+        <v>44479</v>
+      </c>
+      <c r="F2" s="2">
+        <v>44499</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44515</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PT_enrollment_dt</t>
-        </is>
-      </c>
-      <c r="B3">
-        <v>0</v>
+          <t>PT-703</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>21_0808_6077</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>YYYY-MMM-DD</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Patient date of enrollment in the study</t>
-        </is>
+          <t>21_2208_6163</t>
+        </is>
+      </c>
+      <c r="F3" s="2">
+        <v>44416</v>
+      </c>
+      <c r="G3" s="2">
+        <v>44430</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>icf_signed</t>
-        </is>
-      </c>
-      <c r="B4">
-        <v>0</v>
+          <t>PT-774</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>21_2906_1662</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Binary</t>
+          <t>21_2107_7735</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0 = No_x000D_
-1 = Yes</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Patient has signed a data use consent for to participate in the study</t>
-        </is>
+          <t>21_0308_8717</t>
+        </is>
+      </c>
+      <c r="E4" s="2">
+        <v>44376</v>
+      </c>
+      <c r="F4" s="2">
+        <v>44398</v>
+      </c>
+      <c r="G4" s="2">
+        <v>44411</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PT_DOB</t>
-        </is>
-      </c>
-      <c r="B5">
-        <v>0.875</v>
+          <t>PT-10</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>21_0404_9598</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>21_2404_4420</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>YYYY-MMM-DD</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Patient date of birth</t>
-        </is>
+          <t>21_0805_2014</t>
+        </is>
+      </c>
+      <c r="E5" s="2">
+        <v>44290</v>
+      </c>
+      <c r="F5" s="2">
+        <v>44310</v>
+      </c>
+      <c r="G5" s="2">
+        <v>44324</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sex</t>
-        </is>
-      </c>
-      <c r="B6">
-        <v>1.125</v>
+          <t>PT-596</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>20_1609_9125</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Binary</t>
+          <t>20_0810_852</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1 = Female_x000D_
-2 = Male</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Patient sex</t>
-        </is>
+          <t>20_2110_2697</t>
+        </is>
+      </c>
+      <c r="E6" s="2">
+        <v>44090</v>
+      </c>
+      <c r="F6" s="2">
+        <v>44112</v>
+      </c>
+      <c r="G6" s="2">
+        <v>44125</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PT_EOS_reason</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>0</v>
+          <t>PT-331</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>20_0308_8139</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Categorical</t>
+          <t>20_2508_6686</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1 = All visits performed_x000D_
-2 = Lost to follow-up _x000D_
-3 = Consent withdrawn _x000D_
-4 = Not eligible  _x000D_
-5 = Other _x000D_
-6 = Death</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Patient reason for end of study</t>
-        </is>
+          <t>20_0409_1511</t>
+        </is>
+      </c>
+      <c r="E7" s="2">
+        <v>44046</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44068</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44078</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PT_EOS_dt</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>0</v>
+          <t>PT-688</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>20_0106_9010</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>20_2006_1326</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>YYYY-MMM-DD</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Patient date of end of study</t>
-        </is>
+          <t>20_0807_7759</t>
+        </is>
+      </c>
+      <c r="E8" s="2">
+        <v>43983</v>
+      </c>
+      <c r="F8" s="2">
+        <v>44002</v>
+      </c>
+      <c r="G8" s="2">
+        <v>44020</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>treat_1</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>0</v>
+          <t>PT-319</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>20_3103_7442</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Binary</t>
+          <t>20_2004_5502</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0 = No_x000D_
-1 = Yes</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Patient received first round of treatment approximately 7-14 days after enrollment and lab tests were ordered</t>
-        </is>
+          <t>20_0505_6412</t>
+        </is>
+      </c>
+      <c r="E9" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F9" s="2">
+        <v>43941</v>
+      </c>
+      <c r="G9" s="2">
+        <v>43956</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>treat_2</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>0</v>
+          <t>PT-166</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>20_0302_1627</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Binary</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0 = No_x000D_
-1 = Yes</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Patient received second round of treatment approximately 28-35 days after enrollment and lab tests were ordered</t>
-        </is>
+          <t>20_2402_3840</t>
+        </is>
+      </c>
+      <c r="E10" s="2">
+        <v>43864</v>
+      </c>
+      <c r="F10" s="2">
+        <v>43885</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>treat_3</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>0</v>
+          <t>PT-111</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>19_1911_7397</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Binary</t>
+          <t>19_1012_6651</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0 = No_x000D_
-1 = Yes</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Patient received second round of treatment approximately 42-49 days after enrollment and lab tests were ordered</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>treat_dt_1</t>
-        </is>
-      </c>
-      <c r="B12">
-        <v>4.875</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>YYYY-MMM-DD</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Date of first treatment and lab analysis</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>treat_dt_2</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>YYYY-MMM-DD</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Date of second treatment and lab analysis</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>treat_dt_3</t>
-        </is>
-      </c>
-      <c r="B14">
-        <v>10.625</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>YYYY-MMM-DD</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Date of third treatment and lab analysis</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>PT_AGE</t>
-        </is>
-      </c>
-      <c r="B15">
-        <v>0.875</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>numeric</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Number of years</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Age of the patient computed from PT_DOB</t>
-        </is>
+          <t>19_2612_546</t>
+        </is>
+      </c>
+      <c r="E11" s="2">
+        <v>43788</v>
+      </c>
+      <c r="F11" s="2">
+        <v>43809</v>
+      </c>
+      <c r="G11" s="2">
+        <v>43825</v>
       </c>
     </row>
   </sheetData>
